--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1411535.363186363</v>
+        <v>1401347.348877837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1668379.122709967</v>
+        <v>763237.3199885453</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10199394.08985439</v>
+        <v>10534348.03546887</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17581174210019</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>68.11693918766147</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>184.7854324598649</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>43.18156339663391</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>101.9612783740469</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425539</v>
+        <v>20.00402729331236</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>137.8077549362726</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.7387359001783</v>
+        <v>208.8854048700723</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>73.07471730978293</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>127.8053827854167</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>73.40290075667389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>93.81871806113266</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86783845749052</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.28387465494939</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>136.2631732143439</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.4785473346221</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8159275429955</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>165.0616498732774</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.38333237532214</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.96814948561898</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.63664596964884</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>90.69799912608693</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>93.45832099395179</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>265.1911927989004</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>120.7421641270004</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>16.98703979721964</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>133.18270587735</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>191.810082285579</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>35.92515791833342</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494241</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>123.6662397680266</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.994152416892263</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>228.6025210527333</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041362</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>124.12439582303</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>136.99686478197</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>184.238237950663</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>85.17289288835038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>277.4607323328424</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>99.24091199242028</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.1089145855743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>229.7965692041365</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801205</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.6258198491262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>130.1340476951905</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>229.7965692041362</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>52.2349094828588</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>38.03682829123491</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>65.67353929277157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.51491006411065</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3243,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>285.5970594671161</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>72.80978492054801</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3796,10 +3796,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>224.8135144063191</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2000.794048670971</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>2000.794048670971</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>1642.52835006422</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>1256.740097465976</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="F2" t="n">
-        <v>845.7541926763686</v>
+        <v>217.6519665656067</v>
       </c>
       <c r="G2" t="n">
-        <v>429.7231473797759</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>122.3223344947425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>152.507818430191</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232736</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711892</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.148464578733</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135171</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.9606125456</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172452</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904658</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904658</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>2036.325171642789</v>
+        <v>603.43703734778</v>
       </c>
       <c r="T2" t="n">
-        <v>2036.325171642789</v>
+        <v>603.43703734778</v>
       </c>
       <c r="U2" t="n">
-        <v>2036.325171642789</v>
+        <v>414.0172523312951</v>
       </c>
       <c r="V2" t="n">
-        <v>2036.325171642789</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>2036.325171642789</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>2036.325171642789</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2036.325171642789</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.2499828727157</v>
+        <v>176.361962382226</v>
       </c>
       <c r="C3" t="n">
-        <v>888.2499828727157</v>
+        <v>176.361962382226</v>
       </c>
       <c r="D3" t="n">
-        <v>888.2499828727157</v>
+        <v>176.361962382226</v>
       </c>
       <c r="E3" t="n">
-        <v>729.0125278672602</v>
+        <v>176.361962382226</v>
       </c>
       <c r="F3" t="n">
-        <v>582.4779698941452</v>
+        <v>176.361962382226</v>
       </c>
       <c r="G3" t="n">
-        <v>445.6019761092611</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H3" t="n">
-        <v>445.6019761092611</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="I3" t="n">
-        <v>445.6019761092611</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>491.7863446767914</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>648.8776114216205</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>906.4287469816086</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>1226.335642450118</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>1569.11816644475</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.477412699317</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>2074.985828260218</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>2168.459826904658</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904658</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>2168.459826904658</v>
+        <v>598.8192732198765</v>
       </c>
       <c r="T3" t="n">
-        <v>1981.807874924997</v>
+        <v>409.3994882033916</v>
       </c>
       <c r="U3" t="n">
-        <v>1753.706285058261</v>
+        <v>219.9797031869067</v>
       </c>
       <c r="V3" t="n">
-        <v>1518.554176826518</v>
+        <v>176.361962382226</v>
       </c>
       <c r="W3" t="n">
-        <v>1264.316820098317</v>
+        <v>176.361962382226</v>
       </c>
       <c r="X3" t="n">
-        <v>1056.465319892784</v>
+        <v>176.361962382226</v>
       </c>
       <c r="Y3" t="n">
-        <v>1056.465319892784</v>
+        <v>176.361962382226</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="C4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="D4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="E4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="F4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="G4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="H4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>61.70688273934481</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809316</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981553</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018947</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927341</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377472</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033673</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470406008</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514539</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235362</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="S4" t="n">
-        <v>388.3019303235362</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="T4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="U4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="V4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="W4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="X4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.6980730161598</v>
+        <v>29.24882464404144</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1813.712607471257</v>
+        <v>1392.578675329481</v>
       </c>
       <c r="C5" t="n">
-        <v>1444.750090530845</v>
+        <v>1023.61615838907</v>
       </c>
       <c r="D5" t="n">
-        <v>1086.484391924095</v>
+        <v>665.3504597823191</v>
       </c>
       <c r="E5" t="n">
-        <v>947.2846394632136</v>
+        <v>665.3504597823191</v>
       </c>
       <c r="F5" t="n">
-        <v>536.2987346736061</v>
+        <v>254.3645549927116</v>
       </c>
       <c r="G5" t="n">
-        <v>120.401021643123</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>120.401021643123</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>46.58817587566549</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>166.8180106410141</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>397.7498848307619</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>721.1430570142509</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>1112.649709705815</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1515.105157724366</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>1881.797163747932</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2160.259306310697</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2321.200031938189</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2329.408793783275</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2200.312447535379</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2200.312447535379</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2200.312447535379</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>2200.312447535379</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>2200.312447535379</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>2200.312447535379</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>2200.312447535379</v>
+        <v>1392.578675329481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>424.161869071234</v>
+        <v>709.194777326768</v>
       </c>
       <c r="C6" t="n">
-        <v>249.708839790107</v>
+        <v>534.741748045641</v>
       </c>
       <c r="D6" t="n">
-        <v>175.5644955914465</v>
+        <v>385.8073383843897</v>
       </c>
       <c r="E6" t="n">
-        <v>175.5644955914465</v>
+        <v>226.5698833789342</v>
       </c>
       <c r="F6" t="n">
-        <v>175.5644955914465</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="G6" t="n">
-        <v>175.5644955914465</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H6" t="n">
-        <v>80.7981137115145</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>46.58817587566549</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37839484808899</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>267.7601120992526</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>540.4926516931405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>878.1155296086434</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.082925390089</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O6" t="n">
-        <v>1547.077776626516</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1774.937731806201</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1877.336881102144</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1849.77741175371</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1712.137842850332</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1517.715067764855</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U6" t="n">
-        <v>1289.618171256779</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.466063025036</v>
+        <v>1339.407769839991</v>
       </c>
       <c r="W6" t="n">
-        <v>800.2287062968348</v>
+        <v>1085.17041311179</v>
       </c>
       <c r="X6" t="n">
-        <v>592.377206091302</v>
+        <v>1085.17041311179</v>
       </c>
       <c r="Y6" t="n">
-        <v>592.377206091302</v>
+        <v>877.4101143468361</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.69741778033113</v>
+        <v>276.6738474079219</v>
       </c>
       <c r="C7" t="n">
-        <v>60.69741778033113</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="D7" t="n">
-        <v>60.69741778033113</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E7" t="n">
-        <v>60.69741778033113</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F7" t="n">
-        <v>60.69741778033113</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G7" t="n">
-        <v>60.69741778033113</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H7" t="n">
-        <v>60.69741778033113</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I7" t="n">
-        <v>60.69741778033113</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J7" t="n">
-        <v>46.58817587566549</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>102.7461934286098</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
-        <v>204.5149190698535</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>315.07405424448</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>430.8618662024194</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>517.49756242839</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>572.5673961942381</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W7" t="n">
-        <v>554.7526022855019</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X7" t="n">
-        <v>463.1384617541009</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y7" t="n">
-        <v>242.3458826105708</v>
+        <v>276.6738474079219</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1846.019255302744</v>
       </c>
       <c r="C8" t="n">
-        <v>1712.341567565138</v>
+        <v>1477.056738362332</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1118.791039755582</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>733.0027871573375</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>322.0168823677299</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>200.4212373122959</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>470.3869336157602</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>842.2050137379722</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1287.593706992218</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1744.803063321693</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2163.197632325223</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2485.786716210317</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2679.864937059315</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2707.349532583445</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2585.38775063698</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2585.38775063698</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2585.38775063698</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2585.38775063698</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2232.619095366866</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2232.619095366866</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>2232.619095366866</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>683.3064425726177</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>508.8534132914907</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>359.9190036302394</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>200.6815486247839</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>122.449082926837</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>317.3430623472197</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>625.7246102439892</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1004.948199393862</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1408.617353449272</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1755.675971040741</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2014.888042642826</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2138.245251481179</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125855</v>
+        <v>2121.086625423382</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619335</v>
+        <v>1986.558639688685</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>1792.811081824464</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431606</v>
+        <v>1756.523043523117</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1521.370935291374</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1267.133578563172</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1059.28207835764</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>851.5217795926858</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7277411117484</v>
+        <v>179.0623843567463</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>179.0623843567463</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>179.0623843567463</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>179.0623843567463</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>54.1469906516689</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>126.2970999349559</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>248.5301971065616</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>380.6661427433397</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>517.5177168371837</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>623.6092066643567</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>695.3268329482393</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>689.272133537237</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>689.272133537237</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>689.272133537237</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>689.272133537237</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>689.272133537237</v>
       </c>
       <c r="V10" t="n">
-        <v>600.1449111487091</v>
+        <v>689.272133537237</v>
       </c>
       <c r="W10" t="n">
-        <v>310.7277411117484</v>
+        <v>399.8549635002764</v>
       </c>
       <c r="X10" t="n">
-        <v>310.7277411117484</v>
+        <v>399.8549635002764</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.7277411117484</v>
+        <v>179.0623843567463</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038042</v>
+        <v>1715.892666966218</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.66971909763</v>
+        <v>1346.930150025806</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.40402049088</v>
+        <v>988.6644514190555</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926356</v>
+        <v>602.8761988208112</v>
       </c>
       <c r="F11" t="n">
-        <v>298.6298631030281</v>
+        <v>191.8902940312036</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>191.8902940312036</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339055</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>2492.631839006151</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102164</v>
+        <v>2102.492507030339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,34 +5138,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.4482993600903</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218339</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218339</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
         <v>315.6219318279954</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1409.980552474725</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1155.296064268838</v>
+        <v>1452.092450960941</v>
       </c>
       <c r="W13" t="n">
-        <v>865.8788942318774</v>
+        <v>1162.675280923981</v>
       </c>
       <c r="X13" t="n">
-        <v>637.8893433338601</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y13" t="n">
-        <v>417.09676419033</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796247</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>552.807938939213</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>194.5422403324625</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450752</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919558</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943746</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.6774975139006</v>
+        <v>965.8811044681707</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>796.9449215402639</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>696.7015760933747</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>548.7884825109816</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1919.620778439275</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1664.936290233388</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1375.519120196428</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>1147.52956929841</v>
       </c>
       <c r="Y16" t="n">
-        <v>922.6774975139006</v>
+        <v>1147.52956929841</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1590.514489367197</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218339</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V17" t="n">
-        <v>3093.488074938325</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W17" t="n">
-        <v>2740.71941966821</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>2367.25366140713</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>1977.114329431319</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2392.59927678083</v>
+        <v>743.5667998938117</v>
       </c>
       <c r="C19" t="n">
-        <v>2223.663093852923</v>
+        <v>743.5667998938117</v>
       </c>
       <c r="D19" t="n">
-        <v>2073.546454440587</v>
+        <v>743.5667998938117</v>
       </c>
       <c r="E19" t="n">
-        <v>1925.633360858194</v>
+        <v>595.6537063114185</v>
       </c>
       <c r="F19" t="n">
-        <v>1778.743413360284</v>
+        <v>448.7637588135082</v>
       </c>
       <c r="G19" t="n">
-        <v>1611.040576735003</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H19" t="n">
-        <v>1464.823389952861</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>1464.823389952861</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>1509.946022399796</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>1713.933205348673</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>2030.493003797169</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>2374.650049396717</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>2716.058426102582</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
-        <v>3015.388025022995</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>3247.995525456655</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.60582160917</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>3235.775364366697</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>3044.089480193524</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>3044.089480193524</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U19" t="n">
-        <v>2754.986613319167</v>
+        <v>1736.450588178207</v>
       </c>
       <c r="V19" t="n">
-        <v>2500.30212511328</v>
+        <v>1481.76609997232</v>
       </c>
       <c r="W19" t="n">
-        <v>2500.30212511328</v>
+        <v>1192.348929935359</v>
       </c>
       <c r="X19" t="n">
-        <v>2500.30212511328</v>
+        <v>964.3593790373418</v>
       </c>
       <c r="Y19" t="n">
-        <v>2500.30212511328</v>
+        <v>743.5667998938117</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038042</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.66971909763</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1095.40402049088</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>709.6157678926356</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>298.6298631030281</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339055</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077976</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102164</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>362.8175152271508</v>
+        <v>706.6674866466266</v>
       </c>
       <c r="C22" t="n">
-        <v>362.8175152271508</v>
+        <v>537.7313037187197</v>
       </c>
       <c r="D22" t="n">
-        <v>362.8175152271508</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E22" t="n">
-        <v>362.8175152271508</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F22" t="n">
-        <v>362.8175152271508</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672846</v>
+        <v>2389.954735732153</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242372</v>
+        <v>2170.275953446534</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1881.199739761261</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621287</v>
+        <v>1626.515251555374</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251681</v>
+        <v>1337.098081518414</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271508</v>
+        <v>1109.108530620396</v>
       </c>
       <c r="Y22" t="n">
-        <v>362.8175152271508</v>
+        <v>888.3159514768663</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2380.626175203724</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2091.550948547922</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.734188001555</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.849271079229</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3678.164782873342</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3678.164782873342</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3450.175231975325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3229.382652831795</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,22 +6958,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.955532171245</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2190.563011941682</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.48778528588</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1646.803297079993</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1357.386127043032</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>1129.396576145015</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.6039970014847</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7493,13 +7493,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841095</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
         <v>1577.52840832642</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2804.65264778894</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>2635.716464861033</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>2485.599825448698</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>3979.184900903575</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>3724.500412697688</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3435.083242660728</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>3207.09369176271</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>2986.30111261918</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>323.8164599824514</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493172</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>170.4833685642905</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23311,16 +23311,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>82.55208449419922</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>67.89940537316502</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>296.7574771839114</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>50.29152613729252</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.37456102579208</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.475738766520521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>97.95568926599836</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>50.29152613729252</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.20616033281112</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>35.40800518197645</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>113.7908987761694</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>143.301660067224</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>151.7319110345167</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.3170701178266</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>49.43558426092562</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5874149221280618</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>144.5956654067402</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>213.918890572245</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>61.70948393027186</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781882.1278448672</v>
+        <v>781882.1278448674</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781882.1278448672</v>
+        <v>917653.3982530803</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781882.1278448672</v>
+        <v>917653.3982530804</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781882.1278448672</v>
+        <v>917653.3982530806</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115528</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136508</v>
+        <v>501674.8572737692</v>
       </c>
       <c r="G2" t="n">
-        <v>426246.3737136509</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="H2" t="n">
-        <v>426246.3737136508</v>
+        <v>501674.8572737693</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230095</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>42898.85063327109</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>251412.3002812295</v>
+        <v>136000.7074085128</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>147481.6015574869</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>306241.8686975054</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>300174.5225695038</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376606</v>
+        <v>49064.94472854471</v>
       </c>
       <c r="K3" t="n">
-        <v>10355.77842690391</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>63032.12549237097</v>
+        <v>34097.03362498781</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>38517.98506259178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>80518.24125636034</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174202.9900888973</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>162990.2879197638</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>136660.5945770001</v>
       </c>
       <c r="E4" t="n">
         <v>15259.89878720224</v>
       </c>
       <c r="F4" t="n">
-        <v>15259.89878720224</v>
+        <v>15430.10738565431</v>
       </c>
       <c r="G4" t="n">
-        <v>15259.89878720224</v>
+        <v>15430.10738565431</v>
       </c>
       <c r="H4" t="n">
-        <v>15259.89878720224</v>
+        <v>15430.10738565431</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85199.08185587233</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>88361.3034230129</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>95786.83947032577</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750572.8510096873</v>
+        <v>-413728.161601412</v>
       </c>
       <c r="C6" t="n">
-        <v>218900.6641891292</v>
+        <v>-138761.2100657701</v>
       </c>
       <c r="D6" t="n">
-        <v>60208.12121850184</v>
+        <v>144702.9647093386</v>
       </c>
       <c r="E6" t="n">
-        <v>336680.134365055</v>
+        <v>185722.3435095073</v>
       </c>
       <c r="F6" t="n">
-        <v>336680.1343650555</v>
+        <v>79401.70272111482</v>
       </c>
       <c r="G6" t="n">
-        <v>336680.1343650556</v>
+        <v>385643.5714186199</v>
       </c>
       <c r="H6" t="n">
-        <v>336680.1343650552</v>
+        <v>385643.5714186203</v>
       </c>
       <c r="I6" t="n">
-        <v>87732.93240596312</v>
+        <v>376741.1622636614</v>
       </c>
       <c r="J6" t="n">
-        <v>246066.3292378064</v>
+        <v>338495.1309925651</v>
       </c>
       <c r="K6" t="n">
-        <v>377551.6765485629</v>
+        <v>296300.1188562322</v>
       </c>
       <c r="L6" t="n">
-        <v>324875.329483096</v>
+        <v>353463.0420961222</v>
       </c>
       <c r="M6" t="n">
-        <v>387907.4549754668</v>
+        <v>349042.0906585183</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.4549754669</v>
+        <v>307041.8344647496</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.4549754668</v>
+        <v>387560.07572111</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.4549754669</v>
+        <v>387560.0757211098</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376851</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>886.54540172051</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>963.6480080301562</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261646</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3521984458187</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>676.8373831458613</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376851</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>32.83473718282482</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>203.2312988727881</v>
+        <v>109.9373434924721</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>126.1286925631421</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>278.1987997483759</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261646</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>40.237241719654</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="D4" t="n">
-        <v>249.049256956474</v>
+        <v>134.7224264196981</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.5640722564318</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>341.306832697356</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261646</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>40.237241719654</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>249.049256956474</v>
+        <v>134.7224264196981</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>154.5640722564316</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237134</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261646</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>40.237241719654</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>249.049256956474</v>
+        <v>134.7224264196981</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>154.5640722564318</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>328.7438349237132</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.5580299213804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>90.65887400239163</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696038</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29946757904878</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721419</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.977785850898812</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>189.6190237527913</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>65.28554272458096</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>48.68201325828485</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>244.1226151359892</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>202.9853299735545</v>
       </c>
       <c r="H5" t="n">
-        <v>302.9749705765906</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>207.4944324946579</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.06053277864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27700,19 +27700,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>74.04216480796487</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.436608185925</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>67.73893727614785</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>100.8634887233057</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3922909291267</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>148.0133790175599</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>107.3735537978903</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4105461819295</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>196.1558187730671</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.1148297756808</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2318281694364</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>135.0116562629502</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>261.2247206267311</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>146.2375828749073</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>299.8005904082743</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>61.12497568263663</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.1375816037213</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0357359605303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.2707648440514</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.21702052251152</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>28.15788129210634</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,10 +27988,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>189.8798588784862</v>
       </c>
       <c r="V9" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.75480825490466</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2532534423388</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>146.7772093623003</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>103.1923173770328</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.138199169715392</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.15891518508504</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>193.7327745715</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.5207605139508</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2242443065207</v>
       </c>
       <c r="V10" t="n">
-        <v>23.53512227109468</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508279</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958417</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933231</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409261</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258717</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840433</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934787</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839016</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.253840119091</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662303</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.61767849284</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141322</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699499</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>15.0235916945275</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464135</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095122</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076064</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913581</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616803</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730384</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152849</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>436.898513388451</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475636</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349509</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867498</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053863</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057852</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526973</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619437</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017481</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>108.841112100157</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368738</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420142</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595399</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099895</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451905</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153097</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735642</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978883</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.564001614956821</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>36.49983153917655</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>137.401172260623</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>302.4901820674418</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>453.3543704285641</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>562.4261848522991</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>625.8074985722874</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>635.9337181607835</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>600.4941771020566</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>512.5078872328099</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>384.8720793971687</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>223.8772164455316</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>81.21468680082864</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>15.60141706947349</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2851201291965457</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.906908977285625</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>18.41672617536381</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>65.65454154250948</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>180.1610801741652</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>307.9239816523021</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>414.041793511074</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>483.1672439376779</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>495.9552431757031</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>453.7021547842689</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>364.1359783029016</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>243.415258223337</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3956293090146</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>35.41999788949393</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.686181360199513</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1254545379793175</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.598688429332067</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.21379348987966</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>48.076921129368</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>113.0272719537771</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>185.7385284260347</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>237.6813688481512</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>250.6016780633893</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>244.6429302813337</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>225.9673427204999</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>193.3540987621255</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.868355659797</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>71.88284519524001</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>27.86077926390519</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.830759652600648</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08720118705447648</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.873961841327258</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>39.67421170749279</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>149.3509138877693</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>328.7976688303497</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>492.7824735737326</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>611.3402332752519</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>680.2338021709554</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>691.2406962526265</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>652.7189881929286</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>557.0805552351618</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>418.3442967926293</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>243.3477555152736</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>88.27790545924499</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.95826796041008</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3099169473061806</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.072752319159204</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>20.01842371398495</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>71.36449870789366</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>195.8296390658264</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>334.704044449493</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>450.0508928069141</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>525.1881643764351</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>539.0883323413231</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>493.160504637848</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>395.8047827699712</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>264.5850153368837</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>128.6924641667443</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>38.50046522648782</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.354646409242578</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1363652841552108</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.737725916119954</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>15.44996314513924</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>52.25815755022553</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>122.8572222696807</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>201.8921564364819</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>258.3524512020521</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>272.3964361059669</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>265.9194576913382</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>245.6196594893914</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>210.1700508005441</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>145.5108492125536</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>78.13447619208445</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>30.28382346547227</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.42482891433071</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09478504997017941</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233488</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987499</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>381.6404378718165</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142398</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808911</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140561</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>372.283405866206</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873107</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974043</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109608</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183905</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409397</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169991</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818061</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.13827825102</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319515</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>294.3022689440066</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332334</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892935</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850744</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563556</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806458</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>107.896613176781</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769708</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084184</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>121.4442775407555</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>233.2645193835835</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>326.6597698823119</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>395.4612653450147</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>406.5206545641926</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>370.3959656803698</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>281.2748914775404</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>162.5663895227192</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>8.291678631399492</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>53.32345350749847</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>170.0825426779431</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L6" t="n">
-        <v>275.4874137311999</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>341.0332100156596</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>364.6135310923697</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>311.1059103398244</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>230.1615708885714</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.4334841373155</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.72527025549928</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>102.7966925669129</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
-        <v>111.6758941157843</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>116.9573858161005</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>87.5108042686571</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
-        <v>55.62609471297793</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>147.7517643036634</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>272.6926225287521</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>375.5738183052646</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>449.8875689436827</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>461.8276326560356</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>422.6207767712418</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>325.8475594798923</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>196.0386069181798</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>27.76221770114148</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>68.99201239915971</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>196.862605475134</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>311.4965130270399</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>383.0541304544168</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>407.7466202579898</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>350.5642601934035</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>261.830375355641</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>124.6032412508621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>72.87889826594648</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>123.4677749208138</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>133.4706521583618</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>138.233913226105</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>107.1631210375486</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>72.4420467513965</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013304</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127284</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7989988974575</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1401347.348877837</v>
+        <v>1408367.215065053</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>763237.3199885453</v>
+        <v>1668379.122709966</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10534348.03546887</v>
+        <v>10199394.08985439</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>349.168546837402</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>68.11693918766147</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663201</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>90.54273130115091</v>
       </c>
       <c r="V3" t="n">
-        <v>43.18156339663391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.00402729331236</v>
+        <v>13.84443721704987</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>208.8854048700723</v>
+        <v>11.73873590017823</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.7884456246878425</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>127.0889258314801</v>
       </c>
       <c r="V6" t="n">
-        <v>165.0616498732774</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66.38333237532214</v>
+        <v>62.6122984580252</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>17.63664596964884</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>265.1911927989004</v>
+        <v>256.2534865485225</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.7421641270004</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>16.98703979721964</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>133.18270587735</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
-        <v>191.810082285579</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U9" t="n">
-        <v>35.92515791833342</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>123.6662397680266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.994152416892263</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>206.7248674358734</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>124.12439582303</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>203.4068132192036</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>184.238237950663</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>269.6425323314754</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.24091199242028</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>114.4751873309999</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>57.92556443677338</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>298.9494425801205</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>130.1340476951905</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>38.12819374426233</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>200.6173698503548</v>
+        <v>174.7869190180885</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>113.9059869644538</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>38.03682829123491</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>20.92847288552853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>86.88943397770092</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>61.44013021076719</v>
+        <v>120.6889225686075</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>99.17988875728673</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>209.5844008505285</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>63.84155641259233</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>192.8396132741332</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>215.7183996732927</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>224.8135144063191</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148102</v>
+        <v>807.0506031836624</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>807.0506031836624</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148102</v>
+        <v>807.0506031836624</v>
       </c>
       <c r="E2" t="n">
-        <v>224.5974673148102</v>
+        <v>807.0506031836624</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656067</v>
+        <v>396.0646983940548</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897905</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>152.507818430191</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>366.8168396232736</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>669.587892771189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>1417.28654013517</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262259</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S2" t="n">
-        <v>603.43703734778</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T2" t="n">
-        <v>603.43703734778</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312951</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V2" t="n">
-        <v>224.5974673148102</v>
+        <v>1583.789775223596</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148102</v>
+        <v>1583.789775223596</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148102</v>
+        <v>1583.789775223596</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148102</v>
+        <v>1193.650443247784</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.361962382226</v>
+        <v>809.404642243926</v>
       </c>
       <c r="C3" t="n">
-        <v>176.361962382226</v>
+        <v>634.951612962799</v>
       </c>
       <c r="D3" t="n">
-        <v>176.361962382226</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E3" t="n">
-        <v>176.361962382226</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652803</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198765</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033916</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U3" t="n">
-        <v>219.9797031869067</v>
+        <v>1674.769742988892</v>
       </c>
       <c r="V3" t="n">
-        <v>176.361962382226</v>
+        <v>1439.61763475715</v>
       </c>
       <c r="W3" t="n">
-        <v>176.361962382226</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="X3" t="n">
-        <v>176.361962382226</v>
+        <v>1185.380278028948</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.361962382226</v>
+        <v>977.6199792639941</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>92.71685897981548</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910444</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404144</v>
+        <v>506.3050670233782</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1392.578675329481</v>
+        <v>1178.407453760354</v>
       </c>
       <c r="C5" t="n">
-        <v>1023.61615838907</v>
+        <v>809.4449368199428</v>
       </c>
       <c r="D5" t="n">
-        <v>665.3504597823191</v>
+        <v>451.1792382131922</v>
       </c>
       <c r="E5" t="n">
-        <v>665.3504597823191</v>
+        <v>65.39098561494798</v>
       </c>
       <c r="F5" t="n">
-        <v>254.3645549927116</v>
+        <v>58.44548486574451</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>166.8180106410136</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>397.7498848307614</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>721.1430570142502</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1112.649709705815</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1515.105157724365</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1881.797163747932</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2160.259306310697</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2321.200031938189</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2329.408793783275</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>2329.408793783275</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>2328.612384061368</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.718007305293</v>
+        <v>2328.612384061368</v>
       </c>
       <c r="V5" t="n">
-        <v>1782.718007305293</v>
+        <v>2328.612384061368</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.718007305293</v>
+        <v>2328.612384061368</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.718007305293</v>
+        <v>1955.146625800288</v>
       </c>
       <c r="Y5" t="n">
-        <v>1392.578675329481</v>
+        <v>1565.007293824476</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709.194777326768</v>
+        <v>675.7476277966143</v>
       </c>
       <c r="C6" t="n">
-        <v>534.741748045641</v>
+        <v>501.2945985154873</v>
       </c>
       <c r="D6" t="n">
-        <v>385.8073383843897</v>
+        <v>352.360188854236</v>
       </c>
       <c r="E6" t="n">
-        <v>226.5698833789342</v>
+        <v>193.1227338487805</v>
       </c>
       <c r="F6" t="n">
-        <v>80.03532540581918</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="G6" t="n">
-        <v>80.03532540581918</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>99.37839484808899</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>267.7601120992526</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>540.4926516931405</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>878.1155296086434</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1239.082925390089</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1547.077776626516</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1774.937731806201</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1877.336881102144</v>
       </c>
       <c r="U6" t="n">
-        <v>1506.136709105928</v>
+        <v>1748.964228747113</v>
       </c>
       <c r="V6" t="n">
-        <v>1339.407769839991</v>
+        <v>1513.812120515371</v>
       </c>
       <c r="W6" t="n">
-        <v>1085.17041311179</v>
+        <v>1259.574763787169</v>
       </c>
       <c r="X6" t="n">
-        <v>1085.17041311179</v>
+        <v>1051.723263581636</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.4101143468361</v>
+        <v>843.9629648166824</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>276.6738474079219</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="C7" t="n">
-        <v>209.6199763217379</v>
+        <v>491.5078563683047</v>
       </c>
       <c r="D7" t="n">
-        <v>209.6199763217379</v>
+        <v>341.391216955969</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934482</v>
+        <v>193.4781233735758</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934482</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>46.58817587566549</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>102.7461934286098</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>204.5149190698535</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>315.07405424448</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>430.8618662024194</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>517.49756242839</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>572.5673961942381</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="W7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="X7" t="n">
-        <v>497.4664265514521</v>
+        <v>554.7526022855019</v>
       </c>
       <c r="Y7" t="n">
-        <v>276.6738474079219</v>
+        <v>554.7526022855019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1846.019255302744</v>
+        <v>1891.353293732297</v>
       </c>
       <c r="C8" t="n">
-        <v>1477.056738362332</v>
+        <v>1522.390776791885</v>
       </c>
       <c r="D8" t="n">
-        <v>1118.791039755582</v>
+        <v>1164.125078185135</v>
       </c>
       <c r="E8" t="n">
-        <v>733.0027871573375</v>
+        <v>778.3368255868904</v>
       </c>
       <c r="F8" t="n">
-        <v>322.0168823677299</v>
+        <v>367.3509207972829</v>
       </c>
       <c r="G8" t="n">
-        <v>54.1469906516689</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>54.1469906516689</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>54.1469906516689</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>200.4212373122959</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>470.3869336157602</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>842.2050137379722</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1287.593706992218</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>1744.803063321693</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2163.197632325223</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>2485.786716210317</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>2679.864937059315</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>2707.349532583445</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>2585.38775063698</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>2585.38775063698</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2585.38775063698</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2585.38775063698</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.619095366866</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2232.619095366866</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y8" t="n">
-        <v>2232.619095366866</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>683.3064425726177</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>508.8534132914907</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>359.9190036302394</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>200.6815486247839</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>54.1469906516689</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>54.1469906516689</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>54.1469906516689</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I9" t="n">
-        <v>54.1469906516689</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>122.449082926837</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>317.3430623472197</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L9" t="n">
-        <v>625.7246102439892</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1004.948199393862</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1408.617353449272</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.675971040741</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2014.888042642826</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.245251481179</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2121.086625423382</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>1986.558639688685</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>1792.811081824464</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>1756.523043523117</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1521.370935291374</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1267.133578563172</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1059.28207835764</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>851.5217795926858</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.0623843567463</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>179.0623843567463</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>179.0623843567463</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>179.0623843567463</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>54.1469906516689</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>54.1469906516689</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>54.1469906516689</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>54.1469906516689</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>54.1469906516689</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
-        <v>126.2970999349559</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>248.5301971065616</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>380.6661427433397</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>517.5177168371837</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>623.6092066643567</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>695.3268329482393</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>689.272133537237</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>399.8549635002764</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>399.8549635002764</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>179.0623843567463</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1715.892666966218</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C11" t="n">
-        <v>1346.930150025806</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>988.6644514190555</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>602.8761988208112</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>191.8902940312036</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>191.8902940312036</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.58875505237</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V11" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W11" t="n">
-        <v>2866.097597267231</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X11" t="n">
-        <v>2492.631839006151</v>
+        <v>2235.55026287891</v>
       </c>
       <c r="Y11" t="n">
-        <v>2102.492507030339</v>
+        <v>1845.410930903098</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218345</v>
@@ -5202,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1452.092450960941</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1162.675280923981</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>934.6857300259632</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>713.893150882433</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127287</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304025</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750192</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469742</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6844143428629</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>92.8116232260805</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>965.8811044681707</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C16" t="n">
-        <v>796.9449215402639</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1619.977161560774</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439275</v>
+        <v>1330.874294686418</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233388</v>
+        <v>1076.189806480531</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196428</v>
+        <v>786.77263644357</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.52956929841</v>
+        <v>786.77263644357</v>
       </c>
       <c r="Y16" t="n">
-        <v>1147.52956929841</v>
+        <v>565.9800573000399</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>92.8116232260805</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251935</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128754</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333932</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021279</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127287</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304025</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070874</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750192</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469742</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>92.8116232260805</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>570.9683475412853</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>1061.700680385037</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2005.899154770046</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743.5667998938117</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C19" t="n">
-        <v>743.5667998938117</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>743.5667998938117</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>595.6537063114185</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>448.7637588135082</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880632</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>92.8116232260805</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178207</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.76609997232</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.348929935359</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3593790373418</v>
+        <v>774.0603545412372</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.5667998938117</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251936</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128755</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>570.9683475412853</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1061.700680385037</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1653.719034637164</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2275.814998036501</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2552.77562977024</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.6674866466266</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C22" t="n">
-        <v>537.7313037187197</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D22" t="n">
-        <v>387.614664306384</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>239.7015707239909</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005499</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>2389.954735732153</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>2170.275953446534</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1881.199739761261</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V22" t="n">
-        <v>1626.515251555374</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W22" t="n">
-        <v>1337.098081518414</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X22" t="n">
-        <v>1109.108530620396</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y22" t="n">
-        <v>888.3159514768663</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6211,34 +6211,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
         <v>555.8158034133954</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>526.5658826424041</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556945</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,22 +6958,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="41">
@@ -7414,16 +7414,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W46" t="n">
-        <v>1426.218472639697</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>176.0089742276072</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170.4833685642905</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696563</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>67.89940537316502</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.29152613729252</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>116.5954063245782</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>49.37456102579208</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>105.0737619451693</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>50.29152613729252</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>35.40800518197645</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>187.5814616447748</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>50.29152613729153</v>
+        <v>76.20825294081351</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>65.92599321748351</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>143.301660067224</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.8202214113362</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.99383243580198</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>49.43558426092562</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>76.60007353871563</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>84.77391660562003</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>70.46607471595149</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>61.70948393027186</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781882.1278448674</v>
+        <v>781882.1278448673</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917653.3982530803</v>
+        <v>781882.1278448673</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917653.3982530804</v>
+        <v>781882.1278448674</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917653.3982530806</v>
+        <v>781882.1278448672</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922678.5798115525</v>
+        <v>922678.5798115527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922678.5798115527</v>
+        <v>922678.5798115528</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>426246.3737136507</v>
+      </c>
+      <c r="F2" t="n">
         <v>426246.3737136508</v>
       </c>
-      <c r="F2" t="n">
-        <v>501674.8572737692</v>
-      </c>
       <c r="G2" t="n">
-        <v>501674.8572737693</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="H2" t="n">
-        <v>501674.8572737693</v>
+        <v>426246.3737136506</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>1004321.885230095</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>42898.85063327139</v>
       </c>
       <c r="D3" t="n">
-        <v>136000.7074085128</v>
+        <v>251412.3002812298</v>
       </c>
       <c r="E3" t="n">
-        <v>147481.6015574869</v>
+        <v>1.82672692972119e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>306241.8686975054</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744842</v>
+        <v>300174.5225695033</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854471</v>
+        <v>141841.1257376606</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487771</v>
+        <v>10355.77842690399</v>
       </c>
       <c r="L3" t="n">
-        <v>34097.03362498781</v>
+        <v>63032.12549237102</v>
       </c>
       <c r="M3" t="n">
-        <v>38517.98506259178</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80518.24125636034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>162990.2879197638</v>
       </c>
       <c r="D4" t="n">
-        <v>136660.5945770001</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
         <v>15259.89878720224</v>
       </c>
       <c r="F4" t="n">
-        <v>15430.10738565431</v>
+        <v>15259.89878720224</v>
       </c>
       <c r="G4" t="n">
-        <v>15430.10738565431</v>
+        <v>15259.89878720224</v>
       </c>
       <c r="H4" t="n">
-        <v>15430.10738565431</v>
+        <v>15259.89878720224</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>88361.3034230129</v>
       </c>
       <c r="D5" t="n">
-        <v>95786.83947032577</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139331</v>
       </c>
-      <c r="F5" t="n">
-        <v>100142.1285138384</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100142.1285138384</v>
-      </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413728.161601412</v>
+        <v>-750572.8510096871</v>
       </c>
       <c r="C6" t="n">
-        <v>-138761.2100657701</v>
+        <v>218900.6641891287</v>
       </c>
       <c r="D6" t="n">
-        <v>144702.9647093386</v>
+        <v>60208.12121850144</v>
       </c>
       <c r="E6" t="n">
-        <v>185722.3435095073</v>
+        <v>336332.5154352489</v>
       </c>
       <c r="F6" t="n">
-        <v>79401.70272111482</v>
+        <v>336332.5154352491</v>
       </c>
       <c r="G6" t="n">
-        <v>385643.5714186199</v>
+        <v>336332.515435249</v>
       </c>
       <c r="H6" t="n">
-        <v>385643.5714186203</v>
+        <v>336332.5154352491</v>
       </c>
       <c r="I6" t="n">
-        <v>376741.1622636614</v>
+        <v>87698.19448052777</v>
       </c>
       <c r="J6" t="n">
-        <v>338495.1309925651</v>
+        <v>246031.5913123706</v>
       </c>
       <c r="K6" t="n">
-        <v>296300.1188562322</v>
+        <v>377516.9386231272</v>
       </c>
       <c r="L6" t="n">
-        <v>353463.0420961222</v>
+        <v>324840.5915576601</v>
       </c>
       <c r="M6" t="n">
-        <v>349042.0906585183</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="N6" t="n">
-        <v>307041.8344647496</v>
+        <v>387872.717050031</v>
       </c>
       <c r="O6" t="n">
-        <v>387560.07572111</v>
+        <v>387872.7170500312</v>
       </c>
       <c r="P6" t="n">
-        <v>387560.0757211098</v>
+        <v>387872.7170500313</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>886.54540172051</v>
       </c>
       <c r="D3" t="n">
-        <v>963.6480080301562</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="H3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1358.041048716385</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1358.041048716386</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>582.3521984458187</v>
       </c>
       <c r="D4" t="n">
-        <v>676.8373831458613</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>32.83473718282505</v>
       </c>
       <c r="D3" t="n">
-        <v>109.9373434924721</v>
+        <v>203.2312988727883</v>
       </c>
       <c r="E3" t="n">
-        <v>126.1286925631421</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230871</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965429</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7224264196981</v>
+        <v>249.0492569564745</v>
       </c>
       <c r="E4" t="n">
-        <v>154.5640722564318</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>328.7438349237132</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,22 +27032,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965429</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196981</v>
+        <v>249.0492569564742</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564316</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>40.23724171965429</v>
       </c>
       <c r="L4" t="n">
-        <v>134.7224264196981</v>
+        <v>249.0492569564745</v>
       </c>
       <c r="M4" t="n">
-        <v>154.5640722564318</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>328.7438349237132</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>62.70218800622479</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399022</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.65887400239163</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871027</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681157</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>135.2778426669176</v>
       </c>
       <c r="V3" t="n">
-        <v>189.6190237527913</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.68201325828485</v>
+        <v>8.75025406720555</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>202.9853299735545</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>302.9749705765906</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>73.07471730978293</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>127.8053827854167</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>206.70598686997</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.06053277864</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>135.436608185925</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>93.81871806113266</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.86783845749052</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>27.28387465494939</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>136.2631732143439</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>192.4785473346221</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>98.72700171151544</v>
       </c>
       <c r="V6" t="n">
-        <v>67.73893727614785</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8634887233057</v>
+        <v>104.6345226406026</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.3922909291267</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>148.0133790175599</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>107.3735537978903</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>13.96814948561898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>105.4105461819295</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>196.1558187730671</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>221.1148297756808</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2318281694364</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>146.2375828749073</v>
+        <v>154.668239104931</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8005904082743</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>61.12497568263663</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1375816037213</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0357359605303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.2707648440514</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.21702052251152</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.15788129210634</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27988,7 +27988,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>189.8798588784862</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>21.75480825490466</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2532534423388</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>146.7772093623003</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>103.1923173770328</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
-        <v>4.138199169715392</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.15891518508504</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7327745715</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5207605139508</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2242443065207</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.564001614956821</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>36.49983153917655</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>137.401172260623</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>302.4901820674418</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>453.3543704285641</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>562.4261848522991</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>625.8074985722874</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>635.9337181607835</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>600.4941771020566</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>512.5078872328099</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>384.8720793971687</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>223.8772164455316</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>81.21468680082864</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>15.60141706947349</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2851201291965457</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.906908977285625</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>18.41672617536381</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>65.65454154250948</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>180.1610801741652</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>307.9239816523021</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>414.041793511074</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>483.1672439376779</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>495.9552431757031</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>453.7021547842689</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>364.1359783029016</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>243.415258223337</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>118.3956293090146</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>35.41999788949393</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.686181360199513</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1254545379793175</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.598688429332067</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>14.21379348987966</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>48.076921129368</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>113.0272719537771</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>185.7385284260347</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>237.6813688481512</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>250.6016780633893</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>244.6429302813337</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>225.9673427204999</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>193.3540987621255</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>133.868355659797</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>71.88284519524001</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>27.86077926390519</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.830759652600648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08720118705447648</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.873961841327258</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>39.67421170749279</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>149.3509138877693</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>328.7976688303497</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7824735737326</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>611.3402332752519</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>680.2338021709554</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>691.2406962526265</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>652.7189881929286</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>557.0805552351618</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>418.3442967926293</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>243.3477555152736</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>88.27790545924499</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>16.95826796041008</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3099169473061806</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.072752319159204</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>20.01842371398495</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>71.36449870789366</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>195.8296390658264</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>334.704044449493</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>450.0508928069141</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>525.1881643764351</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>539.0883323413231</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>493.160504637848</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>395.8047827699712</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.5850153368837</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>128.6924641667443</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>38.50046522648782</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>8.354646409242578</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1363652841552108</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.737725916119954</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>15.44996314513924</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>52.25815755022553</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>122.8572222696807</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>201.8921564364819</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>258.3524512020521</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>272.3964361059669</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>265.9194576913382</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>245.6196594893914</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>210.1700508005441</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.5108492125536</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>78.13447619208445</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28382346547227</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>7.42482891433071</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09478504997017941</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670522</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N18" t="n">
-        <v>487.0792071670518</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>422.3544583169084</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>121.4442775407555</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>233.2645193835835</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>326.6597698823119</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>395.4612653450147</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>406.5206545641926</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>370.3959656803698</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>281.2748914775404</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>162.5663895227192</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.291678631399492</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>53.32345350749847</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>170.0825426779431</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>275.4874137311999</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>341.0332100156596</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>364.6135310923697</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>311.1059103398244</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>230.1615708885714</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>103.4334841373155</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>56.72527025549928</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>102.7966925669129</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>111.6758941157843</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>116.9573858161005</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>87.5108042686571</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>55.62609471297793</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.7517643036634</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>272.6926225287521</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>375.5738183052646</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>449.8875689436827</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>461.8276326560356</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>422.6207767712418</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>325.8475594798923</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>196.0386069181798</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>27.76221770114148</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.99201239915971</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>196.862605475134</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>311.4965130270399</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>383.0541304544168</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>407.7466202579898</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>350.5642601934035</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>261.830375355641</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.6032412508621</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>72.87889826594648</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4677749208138</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4706521583618</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>138.233913226105</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>107.1631210375486</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>72.4420467513965</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837189</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N18" t="n">
-        <v>355.7374950837184</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>279.758213872464</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
